--- a/outputs/c/_potatoes_both.xlsx
+++ b/outputs/c/_potatoes_both.xlsx
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>1M 36S</t>
   </si>
   <si>
-    <t>cp</t>
-  </si>
-  <si>
     <t>trashB</t>
   </si>
   <si>
@@ -378,10 +372,16 @@
     <t>premium</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <dimension ref="A1:Y51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I3" sqref="I3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
@@ -811,19 +811,19 @@
         <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2" s="2">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>40</v>
       </c>
       <c r="W2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>183</v>
@@ -876,19 +876,19 @@
         <v>2386</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
@@ -912,13 +912,13 @@
         <v>1706</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>11</v>
@@ -941,25 +941,25 @@
         <v>96</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>19</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4" s="2">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>60</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>197</v>
@@ -1012,19 +1012,19 @@
         <v>2292</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>12</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S5" s="2">
         <v>0</v>
@@ -1048,13 +1048,13 @@
         <v>32</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>246</v>
@@ -1077,22 +1077,22 @@
         <v>2866</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>14</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S6" s="2">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>386</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>58</v>
@@ -1145,19 +1145,19 @@
         <v>424</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>202</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>37</v>
@@ -1210,22 +1210,22 @@
         <v>224</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1236,25 +1236,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>57</v>
@@ -1277,10 +1277,10 @@
         <v>460</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>67</v>
@@ -1303,10 +1303,10 @@
         <v>582</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>83</v>
@@ -1329,10 +1329,10 @@
         <v>706</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>92</v>
@@ -1355,10 +1355,10 @@
         <v>760</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1369,7 +1369,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>100</v>
@@ -1381,10 +1381,10 @@
         <v>828</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>118</v>
@@ -1407,10 +1407,10 @@
         <v>1036</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>133</v>
@@ -1433,10 +1433,10 @@
         <v>1706</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1447,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>138</v>
@@ -1459,10 +1459,10 @@
         <v>1784</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1473,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>152</v>
@@ -1485,10 +1485,10 @@
         <v>1982</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1499,7 +1499,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>160</v>
@@ -1511,10 +1511,10 @@
         <v>2174</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>170</v>
@@ -1537,10 +1537,10 @@
         <v>2232</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>176</v>
@@ -1563,10 +1563,10 @@
         <v>2278</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>215</v>
@@ -1589,10 +1589,10 @@
         <v>2576</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1603,7 +1603,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>480</v>
@@ -1615,10 +1615,10 @@
         <v>4102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1641,10 +1641,10 @@
         <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1655,7 +1655,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>17</v>
@@ -1667,10 +1667,10 @@
         <v>124</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1681,7 +1681,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>23</v>
@@ -1693,10 +1693,10 @@
         <v>170</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1707,7 +1707,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>36</v>
@@ -1719,10 +1719,10 @@
         <v>234</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>50</v>
@@ -1745,10 +1745,10 @@
         <v>260</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1759,7 +1759,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>55</v>
@@ -1771,10 +1771,10 @@
         <v>284</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1785,7 +1785,7 @@
         <v>12</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -1797,10 +1797,10 @@
         <v>32</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1811,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="1">
         <v>20</v>
@@ -1823,10 +1823,10 @@
         <v>202</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1837,7 +1837,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1">
         <v>156</v>
@@ -1849,10 +1849,10 @@
         <v>1902</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1863,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="1">
         <v>192</v>
@@ -1875,10 +1875,10 @@
         <v>2230</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1">
         <v>202</v>
@@ -1901,10 +1901,10 @@
         <v>2330</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="1">
         <v>210</v>
@@ -1927,10 +1927,10 @@
         <v>2372</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1941,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1">
         <v>218</v>
@@ -1953,10 +1953,10 @@
         <v>2394</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1967,7 +1967,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="1">
         <v>224</v>
@@ -1979,10 +1979,10 @@
         <v>2478</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1993,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1">
         <v>229</v>
@@ -2005,10 +2005,10 @@
         <v>2776</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2019,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1">
         <v>243</v>
@@ -2031,10 +2031,10 @@
         <v>2794</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2045,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1">
         <v>285</v>
@@ -2057,10 +2057,10 @@
         <v>3218</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2071,7 +2071,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1">
         <v>290</v>
@@ -2083,10 +2083,10 @@
         <v>3280</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D42" s="1">
         <v>52</v>
@@ -2109,10 +2109,10 @@
         <v>386</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1">
         <v>65</v>
@@ -2135,10 +2135,10 @@
         <v>432</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1">
         <v>71</v>
@@ -2161,10 +2161,10 @@
         <v>460</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2175,7 +2175,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1">
         <v>77</v>
@@ -2187,10 +2187,10 @@
         <v>554</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="1">
         <v>87</v>
@@ -2213,10 +2213,10 @@
         <v>564</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D47" s="1">
         <v>28</v>
@@ -2239,10 +2239,10 @@
         <v>202</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48" s="1">
         <v>31</v>
@@ -2265,10 +2265,10 @@
         <v>208</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2279,7 +2279,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="1">
         <v>34</v>
@@ -2291,10 +2291,10 @@
         <v>212</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1">
         <v>40</v>
@@ -2317,10 +2317,10 @@
         <v>228</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1">
         <v>43</v>
@@ -2343,10 +2343,10 @@
         <v>234</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
